--- a/Data/Transitions/19381947Translation.xlsx
+++ b/Data/Transitions/19381947Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="634">
   <si>
     <t>id</t>
   </si>
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -229,7 +229,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -274,7 +274,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -307,7 +307,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,19 +319,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -343,7 +343,7 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.2765425174972384, 307.0: 0.9844963966062609}</t>
+    <t>{202.0: 0.27656206348482465, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
@@ -364,7 +364,7 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -373,7 +373,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -409,7 +409,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,6 +448,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -502,7 +505,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -511,7 +514,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -544,7 +547,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -640,9 +643,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -655,16 +655,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -703,7 +703,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -727,7 +727,7 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 783.0: 0.0003181673560292714}</t>
+    <t>{430.0: 1.0, 783.0: 0.0003204101249599487}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -778,7 +778,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -811,7 +811,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -838,7 +838,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -985,7 +985,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1084,7 +1084,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1105,7 +1105,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1135,7 +1135,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1156,10 +1156,10 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9801570036886409}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9802098910129465}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1174,7 +1174,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1285,7 +1285,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1312,10 +1312,10 @@
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1330,7 +1330,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1372,7 +1372,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1384,13 +1384,13 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 634.0: 0.9963536918869644}</t>
+    <t>{848.0: 1.0, 634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1399,7 +1399,7 @@
     <t>{852.0: 0.9974811083123426}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 202.0: 0.7234574825027617, 477.0: 0.9101412494653922, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+    <t>{853.0: 1.0, 202.0: 0.7234379365151753, 477.0: 0.9101412494653922, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1411,7 +1411,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1549,7 +1549,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1567,7 +1567,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
+    <t>{992.0: 0.6522602170250872}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435521, 208.0: 0.00047236655644780347}</t>
@@ -1633,9 +1633,6 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{140.0: 0.9858227848101264, 762.0: 0.014177215189873417}</t>
   </si>
   <si>
@@ -1663,13 +1660,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568005, 850.0: 0.00017928140534721575}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057646, 850.0: 0.00017881733719363324}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968887, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{182.0: 0.9971607713237906, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831425, 307.0: 0.18747406921685753}</t>
@@ -1702,7 +1699,7 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492868}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{270.0: 0.9873640905083751, 479.0: 0.012635909491625037}</t>
@@ -1735,7 +1732,7 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333114}</t>
@@ -1744,7 +1741,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -1762,7 +1759,7 @@
     <t>{479.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409936, 695.0: 0.0011773016246762421}</t>
@@ -1825,7 +1822,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458069, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972788, 208.0: 0.042517006802721094}</t>
@@ -1855,13 +1852,13 @@
     <t>{762.0: 0.9509029955661299, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.980357142857143, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.0003498542274052478}</t>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1891,10 +1888,10 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 0.8505085978376737, 202.0: 0.06268204121766509, 477.0: 0.08206767991568995, 307.0: 8.840671277534608e-05, 207.0: 0.004653274316195665}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.007233540005904928}</t>
+    <t>{853.0: 0.8505085978376742, 202.0: 0.06268204121766509, 477.0: 0.08206767991568995, 307.0: 8.840671277534608e-05, 207.0: 0.004653274316195665}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -3049,7 +3046,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3104,7 +3101,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3115,7 +3112,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3148,7 +3145,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3181,7 +3178,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3214,7 +3211,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3302,7 +3299,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3335,7 +3332,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3346,7 +3343,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3379,7 +3376,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3390,7 +3387,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3401,7 +3398,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3423,7 +3420,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3467,7 +3464,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3522,7 +3519,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3533,7 +3530,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3544,7 +3541,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3577,7 +3574,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3698,7 +3695,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3709,7 +3706,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3764,7 +3761,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3846,7 +3843,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3857,7 +3854,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3868,7 +3865,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3879,7 +3876,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3890,7 +3887,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3901,7 +3898,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3912,29 +3909,29 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>560</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>559</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3945,7 +3942,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3956,7 +3953,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3978,7 +3975,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4000,7 +3997,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4033,40 +4030,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>561</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4077,29 +4074,29 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>563</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4121,7 +4118,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4132,7 +4129,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4143,7 +4140,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4154,29 +4151,29 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>564</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4198,29 +4195,29 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>565</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4231,7 +4228,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4253,7 +4250,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4275,7 +4272,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4286,7 +4283,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4308,7 +4305,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4319,7 +4316,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4330,7 +4327,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4341,40 +4338,40 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>566</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>191</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4385,29 +4382,29 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>568</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4418,7 +4415,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4429,7 +4426,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4440,7 +4437,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4451,7 +4448,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4462,7 +4459,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4473,7 +4470,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4484,29 +4481,29 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>557</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>556</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4528,7 +4525,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4539,7 +4536,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4550,7 +4547,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4578,7 +4575,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4589,7 +4586,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4611,7 +4608,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4633,7 +4630,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4644,7 +4641,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4787,7 +4784,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4853,7 +4850,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4875,7 +4872,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4897,7 +4894,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4996,7 +4993,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5018,7 +5015,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5040,7 +5037,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5062,7 +5059,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5183,7 +5180,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5282,7 +5279,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5337,7 +5334,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5370,7 +5367,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5403,7 +5400,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5469,7 +5466,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5546,7 +5543,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5579,7 +5576,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5590,7 +5587,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5678,7 +5675,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5689,7 +5686,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5711,7 +5708,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5766,7 +5763,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5810,7 +5807,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5821,7 +5818,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5920,7 +5917,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5931,7 +5928,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5975,7 +5972,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5986,7 +5983,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6184,7 +6181,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6261,7 +6258,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6371,7 +6368,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6382,7 +6379,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6393,7 +6390,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6437,7 +6434,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6448,7 +6445,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6459,7 +6456,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6492,7 +6489,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6514,7 +6511,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6767,7 +6764,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6822,7 +6819,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6866,7 +6863,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6921,7 +6918,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6954,7 +6951,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7020,7 +7017,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7031,7 +7028,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7053,7 +7050,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7086,7 +7083,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7130,7 +7127,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7174,7 +7171,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7240,7 +7237,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7284,7 +7281,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7306,7 +7303,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7328,7 +7325,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7339,7 +7336,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7383,7 +7380,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7471,7 +7468,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7570,7 +7567,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7581,7 +7578,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7614,7 +7611,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7746,7 +7743,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7889,7 +7886,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7900,7 +7897,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7955,7 +7952,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8043,7 +8040,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8098,7 +8095,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
